--- a/Sota Table R Analysis/SOTA Table (dots).xlsx
+++ b/Sota Table R Analysis/SOTA Table (dots).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/sl57wj_student_aau_dk/Documents/Projektmapper/P4 Projekt/RasaForPi/RasaForPi/Sota Table R Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A495363-46F2-7247-9A3D-1B48016079B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5A495363-46F2-7247-9A3D-1B48016079B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE86701-080C-4C43-9CCF-17B766F7C733}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="313">
   <si>
     <t>Medium</t>
   </si>
@@ -167,6 +167,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Asch</t>
     </r>
@@ -175,6 +176,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> D.A.</t>
     </r>
@@ -192,6 +194,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Asch</t>
     </r>
@@ -199,6 +202,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> D. A.</t>
     </r>
@@ -219,6 +223,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Asch</t>
     </r>
@@ -227,6 +232,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> D. A.</t>
     </r>
@@ -244,6 +250,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Becker</t>
     </r>
@@ -252,6 +259,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> H.</t>
     </r>
@@ -269,6 +277,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Beebe</t>
     </r>
@@ -277,6 +286,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> T.J.</t>
     </r>
@@ -297,6 +307,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Berry</t>
     </r>
@@ -305,6 +316,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S. H.</t>
     </r>
@@ -322,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Bhandari</t>
     </r>
@@ -330,6 +343,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> M.</t>
     </r>
@@ -344,6 +358,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Bostick</t>
     </r>
@@ -352,6 +367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> R. M.</t>
     </r>
@@ -366,6 +382,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Cartwright</t>
     </r>
@@ -374,6 +391,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> A.</t>
     </r>
@@ -388,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>del Valle</t>
     </r>
@@ -396,6 +415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> M.</t>
     </r>
@@ -410,6 +430,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Donaldson</t>
     </r>
@@ -418,6 +439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> G. W.</t>
     </r>
@@ -432,6 +454,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Dykema</t>
     </r>
@@ -440,6 +463,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> J.</t>
     </r>
@@ -454,6 +478,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Everett</t>
     </r>
@@ -462,6 +487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S. A.</t>
     </r>
@@ -476,6 +502,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Gattellari</t>
     </r>
@@ -484,6 +511,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> M.</t>
     </r>
@@ -495,15 +523,13 @@
     <t>\cite{gore2002example}</t>
   </si>
   <si>
-    <t>14-21 days</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Grava-Gubins</t>
     </r>
@@ -512,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> I.</t>
     </r>
@@ -529,6 +556,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Guise</t>
     </r>
@@ -537,6 +565,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> V.</t>
     </r>
@@ -551,6 +580,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Halpern</t>
     </r>
@@ -559,6 +589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S. D.</t>
     </r>
@@ -573,6 +604,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Hart</t>
     </r>
@@ -581,6 +613,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> A. M.</t>
     </r>
@@ -598,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Hawley</t>
     </r>
@@ -606,6 +640,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> K. M.</t>
     </r>
@@ -623,6 +658,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Heywood</t>
     </r>
@@ -631,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> A.</t>
     </r>
@@ -645,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>James</t>
     </r>
@@ -653,6 +691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> K. M.</t>
     </r>
@@ -667,6 +706,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Kanaan</t>
     </r>
@@ -675,6 +715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> R. A. A.</t>
     </r>
@@ -689,6 +730,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Keating</t>
     </r>
@@ -697,6 +739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> N. L.</t>
     </r>
@@ -711,6 +754,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Lusk</t>
     </r>
@@ -719,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C.</t>
     </r>
@@ -736,6 +781,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Malin</t>
     </r>
@@ -744,6 +790,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> J. L.</t>
     </r>
@@ -764,6 +811,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Martins</t>
     </r>
@@ -772,6 +820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Y.</t>
     </r>
@@ -786,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Matteson</t>
     </r>
@@ -794,6 +844,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> K. A.</t>
     </r>
@@ -805,6 +856,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>McLaren</t>
     </r>
@@ -813,6 +865,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> B.</t>
     </r>
@@ -827,6 +880,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Myerson</t>
     </r>
@@ -835,6 +889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S.</t>
     </r>
@@ -855,6 +910,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Paul</t>
     </r>
@@ -862,6 +918,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C. L.</t>
     </r>
@@ -876,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Puleo</t>
     </r>
@@ -884,6 +942,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> E.</t>
     </r>
@@ -898,6 +957,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Recklitis</t>
     </r>
@@ -906,6 +966,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C. J.</t>
     </r>
@@ -920,6 +981,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Thorpe</t>
     </r>
@@ -928,6 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C.</t>
     </r>
@@ -948,6 +1011,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Ulrich</t>
     </r>
@@ -956,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C. M.</t>
     </r>
@@ -970,6 +1035,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>VanGeest</t>
     </r>
@@ -978,6 +1044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> J. B.</t>
     </r>
@@ -992,6 +1059,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Viera</t>
     </r>
@@ -1000,6 +1068,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> A. J.</t>
     </r>
@@ -1014,6 +1083,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>VonRiesen</t>
     </r>
@@ -1022,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> R. D.</t>
     </r>
@@ -1036,6 +1107,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Wilson</t>
     </r>
@@ -1044,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> P. M.</t>
     </r>
@@ -1058,6 +1131,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Ziegenfuss</t>
     </r>
@@ -1066,6 +1140,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> J. Y.</t>
     </r>
@@ -1122,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Asch</t>
     </r>
@@ -1130,6 +1206,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> D.A.</t>
     </r>
@@ -1141,6 +1218,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Asch</t>
     </r>
@@ -1148,6 +1226,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> D. A.</t>
     </r>
@@ -1159,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Asch</t>
     </r>
@@ -1167,6 +1247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> D. A.</t>
     </r>
@@ -1178,6 +1259,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Becker</t>
     </r>
@@ -1186,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> H.</t>
     </r>
@@ -1197,6 +1280,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Beebe</t>
     </r>
@@ -1205,6 +1289,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> T.J.</t>
     </r>
@@ -1216,6 +1301,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Berk</t>
     </r>
@@ -1224,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> M. L.</t>
     </r>
@@ -1235,6 +1322,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Berry</t>
     </r>
@@ -1243,6 +1331,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S. H.</t>
     </r>
@@ -1254,6 +1343,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Bhandari</t>
     </r>
@@ -1262,6 +1352,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> M.</t>
     </r>
@@ -1273,6 +1364,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Bostick</t>
     </r>
@@ -1281,6 +1373,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> R. M.</t>
     </r>
@@ -1292,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Cartwright</t>
     </r>
@@ -1300,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> A.</t>
     </r>
@@ -1311,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>del Valle</t>
     </r>
@@ -1319,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> M.</t>
     </r>
@@ -1330,6 +1427,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Donaldson</t>
     </r>
@@ -1338,6 +1436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> G. W.</t>
     </r>
@@ -1349,6 +1448,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Dykema</t>
     </r>
@@ -1357,6 +1457,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> J.</t>
     </r>
@@ -1368,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Everett</t>
     </r>
@@ -1376,6 +1478,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S. A.</t>
     </r>
@@ -1387,6 +1490,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Gattellari</t>
     </r>
@@ -1395,6 +1499,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> M.</t>
     </r>
@@ -1406,6 +1511,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Gore-Felton</t>
     </r>
@@ -1414,6 +1520,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C.</t>
     </r>
@@ -1425,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Grava-Gubins</t>
     </r>
@@ -1433,6 +1541,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> I.</t>
     </r>
@@ -1444,6 +1553,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Guise</t>
     </r>
@@ -1452,6 +1562,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> V.</t>
     </r>
@@ -1463,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Halpern</t>
     </r>
@@ -1471,6 +1583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S. D.</t>
     </r>
@@ -1482,6 +1595,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Hart</t>
     </r>
@@ -1490,6 +1604,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> A. M.</t>
     </r>
@@ -1501,6 +1616,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Hawley</t>
     </r>
@@ -1509,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> K. M.</t>
     </r>
@@ -1520,6 +1637,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Heywood</t>
     </r>
@@ -1528,6 +1646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> A.</t>
     </r>
@@ -1539,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>James</t>
     </r>
@@ -1547,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> K. M.</t>
     </r>
@@ -1558,6 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Kanaan</t>
     </r>
@@ -1566,6 +1688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> R. A. A.</t>
     </r>
@@ -1577,6 +1700,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Keating</t>
     </r>
@@ -1585,6 +1709,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> N. L.</t>
     </r>
@@ -1596,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Lusk</t>
     </r>
@@ -1604,6 +1730,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C.</t>
     </r>
@@ -1615,6 +1742,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Malin</t>
     </r>
@@ -1623,6 +1751,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> J. L.</t>
     </r>
@@ -1634,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Martins</t>
     </r>
@@ -1642,6 +1772,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Y.</t>
     </r>
@@ -1653,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Matteson</t>
     </r>
@@ -1661,6 +1793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> K. A.</t>
     </r>
@@ -1672,6 +1805,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>McLaren</t>
     </r>
@@ -1680,6 +1814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> B.</t>
     </r>
@@ -1691,6 +1826,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Myerson</t>
     </r>
@@ -1699,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S.</t>
     </r>
@@ -1710,6 +1847,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Nicholls</t>
     </r>
@@ -1718,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> K.</t>
     </r>
@@ -1729,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Paul</t>
     </r>
@@ -1736,6 +1876,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C. L.</t>
     </r>
@@ -1747,6 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Puleo</t>
     </r>
@@ -1755,6 +1897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> E.</t>
     </r>
@@ -1766,6 +1909,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Recklitis</t>
     </r>
@@ -1774,6 +1918,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C. J.</t>
     </r>
@@ -1785,6 +1930,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Thorpe</t>
     </r>
@@ -1793,6 +1939,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C.</t>
     </r>
@@ -1804,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Ulrich</t>
     </r>
@@ -1812,6 +1960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C. M.</t>
     </r>
@@ -1823,6 +1972,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>VanGeest</t>
     </r>
@@ -1831,6 +1981,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> J. B.</t>
     </r>
@@ -1842,6 +1993,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Viera</t>
     </r>
@@ -1850,6 +2002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> A. J.</t>
     </r>
@@ -1861,6 +2014,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>VonRiesen</t>
     </r>
@@ -1869,6 +2023,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> R. D.</t>
     </r>
@@ -1880,6 +2035,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Wilson</t>
     </r>
@@ -1888,6 +2044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> P. M.</t>
     </r>
@@ -1899,6 +2056,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Ziegenfuss</t>
     </r>
@@ -1907,6 +2065,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> J. Y.</t>
     </r>
@@ -2273,7 +2432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2284,44 +2443,52 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2368,7 +2535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2390,12 +2557,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2408,64 +2573,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2682,17 +2790,17 @@
   <dimension ref="A1:P148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L152" sqref="L152"/>
+      <selection pane="bottomRight" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="7" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
@@ -2704,27 +2812,27 @@
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="11" t="s">
-        <v>196</v>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -2736,13 +2844,13 @@
         <v>28</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>29</v>
@@ -2754,14 +2862,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2802,14 +2910,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2850,14 +2958,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2898,14 +3006,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2946,15 +3054,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>213</v>
+      <c r="C6" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
@@ -2994,14 +3102,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3042,15 +3150,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>214</v>
+      <c r="C8" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>39</v>
@@ -3090,14 +3198,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3138,15 +3246,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>215</v>
+      <c r="C10" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -3186,15 +3294,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>216</v>
+      <c r="C11" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>39</v>
@@ -3234,15 +3342,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>217</v>
+      <c r="C12" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>39</v>
@@ -3282,15 +3390,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>218</v>
+      <c r="C13" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>39</v>
@@ -3330,15 +3438,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>219</v>
+      <c r="C14" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>39</v>
@@ -3378,15 +3486,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>220</v>
+      <c r="C15" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>39</v>
@@ -3426,15 +3534,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>221</v>
+      <c r="C16" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>39</v>
@@ -3474,15 +3582,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>222</v>
+      <c r="C17" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
@@ -3522,15 +3630,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>223</v>
+      <c r="C18" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -3570,15 +3678,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>224</v>
+      <c r="C19" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>39</v>
@@ -3592,7 +3700,7 @@
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>2</v>
       </c>
       <c r="I19" s="1">
@@ -3618,14 +3726,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3666,15 +3774,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>225</v>
+      <c r="C21" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>39</v>
@@ -3691,7 +3799,7 @@
       <c r="H21" s="2">
         <v>3</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="1">
         <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3714,15 +3822,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>226</v>
+      <c r="C22" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
@@ -3739,7 +3847,7 @@
       <c r="H22" s="2">
         <v>3</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="1">
         <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -3762,15 +3870,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>227</v>
+      <c r="C23" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>39</v>
@@ -3810,15 +3918,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>228</v>
+      <c r="C24" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>39</v>
@@ -3858,18 +3966,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>229</v>
+      <c r="C25" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>3</v>
@@ -3906,18 +4014,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>3</v>
@@ -3954,14 +4062,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>96</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -4002,14 +4110,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>83</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -4050,14 +4158,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -4098,14 +4206,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -4146,15 +4254,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>226</v>
+      <c r="C31" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>39</v>
@@ -4185,7 +4293,7 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>14</v>
@@ -4194,15 +4302,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>230</v>
+      <c r="C32" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>39</v>
@@ -4242,15 +4350,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>231</v>
+      <c r="C33" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>39</v>
@@ -4290,14 +4398,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -4338,14 +4446,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -4386,14 +4494,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -4434,14 +4542,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4482,14 +4590,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -4530,15 +4638,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>232</v>
+      <c r="C39" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
@@ -4578,15 +4686,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>232</v>
+      <c r="C40" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>10</v>
@@ -4626,15 +4734,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>233</v>
+      <c r="C41" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>10</v>
@@ -4658,10 +4766,10 @@
         <v>3</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M41" s="1">
         <v>200</v>
@@ -4676,15 +4784,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>234</v>
+      <c r="C42" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>10</v>
@@ -4708,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M42" s="1">
         <v>200</v>
@@ -4726,15 +4834,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>235</v>
+      <c r="C43" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>10</v>
@@ -4774,15 +4882,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>236</v>
+      <c r="C44" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>10</v>
@@ -4806,14 +4914,14 @@
         <v>3</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>14</v>
@@ -4822,15 +4930,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>237</v>
+      <c r="C45" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>10</v>
@@ -4854,14 +4962,14 @@
         <v>3</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>14</v>
@@ -4870,15 +4978,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>238</v>
+      <c r="C46" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>39</v>
@@ -4918,15 +5026,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>239</v>
+      <c r="C47" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>39</v>
@@ -4966,15 +5074,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>240</v>
+      <c r="C48" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>39</v>
@@ -4998,10 +5106,10 @@
         <v>3</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
@@ -5014,15 +5122,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>241</v>
+      <c r="C49" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>39</v>
@@ -5062,14 +5170,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="13">
         <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -5087,8 +5195,8 @@
       <c r="H50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>79</v>
+      <c r="I50" s="1">
+        <v>21</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>3</v>
@@ -5110,15 +5218,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>242</v>
+        <v>80</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>20</v>
@@ -5142,10 +5250,10 @@
         <v>3</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>3</v>
@@ -5160,15 +5268,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>243</v>
+      <c r="C52" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>10</v>
@@ -5192,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>3</v>
@@ -5204,21 +5312,21 @@
         <v>61</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>244</v>
+      <c r="C53" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
@@ -5242,10 +5350,10 @@
         <v>3</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
@@ -5258,15 +5366,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>245</v>
+        <v>83</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
@@ -5306,15 +5414,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>246</v>
+      <c r="C55" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>20</v>
@@ -5354,15 +5462,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>247</v>
+        <v>85</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>10</v>
@@ -5386,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M56" s="1">
         <v>5000</v>
@@ -5404,15 +5512,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>248</v>
+      <c r="C57" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>10</v>
@@ -5436,10 +5544,10 @@
         <v>3</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M57" s="1">
         <v>250</v>
@@ -5454,15 +5562,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>245</v>
+      <c r="C58" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>10</v>
@@ -5502,15 +5610,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>249</v>
+      <c r="C59" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>39</v>
@@ -5534,10 +5642,10 @@
         <v>3</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M59" s="1">
         <v>200</v>
@@ -5552,15 +5660,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>250</v>
+      <c r="C60" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>39</v>
@@ -5600,15 +5708,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>251</v>
+      <c r="C61" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
@@ -5632,10 +5740,10 @@
         <v>3</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M61" s="1">
         <v>2500</v>
@@ -5650,15 +5758,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>252</v>
+      <c r="C62" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
@@ -5698,15 +5806,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>253</v>
+        <v>87</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>10</v>
@@ -5740,21 +5848,21 @@
         <v>36</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>254</v>
+      <c r="C64" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>10</v>
@@ -5788,21 +5896,21 @@
         <v>36</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>255</v>
+        <v>90</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>39</v>
@@ -5836,21 +5944,21 @@
         <v>36</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>256</v>
+      <c r="C66" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>39</v>
@@ -5874,30 +5982,30 @@
         <v>3</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
         <v>48</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="15">
+      <c r="C67" s="13">
         <v>51</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -5932,21 +6040,21 @@
         <v>48</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>257</v>
+      <c r="C68" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>39</v>
@@ -5980,21 +6088,21 @@
         <v>48</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>258</v>
+      <c r="C69" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>39</v>
@@ -6028,21 +6136,21 @@
         <v>48</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>259</v>
+        <v>93</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>39</v>
@@ -6082,15 +6190,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>260</v>
+      <c r="C71" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>39</v>
@@ -6130,15 +6238,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>261</v>
+      <c r="C72" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>39</v>
@@ -6178,15 +6286,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>262</v>
+        <v>95</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>39</v>
@@ -6226,15 +6334,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>263</v>
+      <c r="C74" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>39</v>
@@ -6274,15 +6382,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>264</v>
+      <c r="C75" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>39</v>
@@ -6322,15 +6430,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>265</v>
+      <c r="C76" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>39</v>
@@ -6370,15 +6478,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>266</v>
+        <v>97</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>39</v>
@@ -6418,15 +6526,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>267</v>
+      <c r="C78" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>39</v>
@@ -6466,15 +6574,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>268</v>
+      <c r="C79" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>39</v>
@@ -6514,15 +6622,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>269</v>
+        <v>99</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>20</v>
@@ -6562,15 +6670,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>270</v>
+      <c r="C81" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
@@ -6610,15 +6718,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>271</v>
+        <v>101</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>39</v>
@@ -6652,21 +6760,21 @@
         <v>3</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>272</v>
+      <c r="C83" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>10</v>
@@ -6700,21 +6808,21 @@
         <v>3</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>273</v>
+        <v>104</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>39</v>
@@ -6748,21 +6856,21 @@
         <v>36</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P84" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>274</v>
+      <c r="C85" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>20</v>
@@ -6796,21 +6904,21 @@
         <v>36</v>
       </c>
       <c r="O85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P85" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>275</v>
+      <c r="C86" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>20</v>
@@ -6844,21 +6952,21 @@
         <v>3</v>
       </c>
       <c r="O86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P86" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P86" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>276</v>
+        <v>108</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>275</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>20</v>
@@ -6898,15 +7006,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>277</v>
+      <c r="C88" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>20</v>
@@ -6946,15 +7054,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>278</v>
+        <v>194</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>10</v>
@@ -6994,14 +7102,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C90" s="15">
+        <v>194</v>
+      </c>
+      <c r="C90" s="13">
         <v>52</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -7042,14 +7150,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="15">
+        <v>111</v>
+      </c>
+      <c r="C91" s="13">
         <v>63</v>
       </c>
       <c r="D91" s="4" t="s">
@@ -7074,10 +7182,10 @@
         <v>3</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1" t="s">
@@ -7090,15 +7198,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>279</v>
+      <c r="C92" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>39</v>
@@ -7122,10 +7230,10 @@
         <v>3</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1" t="s">
@@ -7138,15 +7246,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>280</v>
+      <c r="C93" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>39</v>
@@ -7186,15 +7294,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>281</v>
+      <c r="C94" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>39</v>
@@ -7234,15 +7342,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>250</v>
+        <v>113</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>39</v>
@@ -7263,7 +7371,7 @@
         <v>36</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>13</v>
@@ -7282,15 +7390,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>282</v>
+      <c r="C96" s="15" t="s">
+        <v>281</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>39</v>
@@ -7311,7 +7419,7 @@
         <v>45</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>13</v>
@@ -7327,18 +7435,18 @@
         <v>14</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>283</v>
+      <c r="C97" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>39</v>
@@ -7359,7 +7467,7 @@
         <v>45</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>13</v>
@@ -7375,18 +7483,18 @@
         <v>14</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>284</v>
+        <v>115</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>20</v>
@@ -7410,10 +7518,10 @@
         <v>3</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1" t="s">
@@ -7426,15 +7534,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>226</v>
+        <v>117</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>39</v>
@@ -7474,15 +7582,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>285</v>
+      <c r="C100" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>39</v>
@@ -7522,15 +7630,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>286</v>
+        <v>119</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>39</v>
@@ -7570,15 +7678,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>287</v>
+      <c r="C102" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>39</v>
@@ -7615,18 +7723,18 @@
         <v>14</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>260</v>
+      <c r="C103" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>39</v>
@@ -7663,18 +7771,18 @@
         <v>14</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>288</v>
+      <c r="C104" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>20</v>
@@ -7711,18 +7819,18 @@
         <v>14</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>288</v>
+        <v>121</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>20</v>
@@ -7762,14 +7870,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C106" s="15">
+      <c r="C106" s="13">
         <v>63</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -7794,10 +7902,10 @@
         <v>3</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1" t="s">
@@ -7810,15 +7918,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>289</v>
+      <c r="C107" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>20</v>
@@ -7842,10 +7950,10 @@
         <v>3</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1" t="s">
@@ -7858,15 +7966,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>290</v>
+        <v>123</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>39</v>
@@ -7887,7 +7995,7 @@
         <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>13</v>
@@ -7906,15 +8014,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>291</v>
+      <c r="C109" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>39</v>
@@ -7935,7 +8043,7 @@
         <v>3</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K109" s="1">
         <v>25</v>
@@ -7951,18 +8059,18 @@
         <v>14</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>292</v>
+      <c r="C110" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>39</v>
@@ -7983,7 +8091,7 @@
         <v>3</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K110" s="1">
         <v>25</v>
@@ -8002,15 +8110,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>292</v>
+      <c r="C111" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>39</v>
@@ -8031,7 +8139,7 @@
         <v>3</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K111" s="1">
         <v>25</v>
@@ -8050,15 +8158,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>290</v>
+        <v>127</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>39</v>
@@ -8098,15 +8206,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>293</v>
+      <c r="C113" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>39</v>
@@ -8146,15 +8254,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>294</v>
+      <c r="C114" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>39</v>
@@ -8178,10 +8286,10 @@
         <v>3</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M114" s="1">
         <v>100</v>
@@ -8196,15 +8304,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>295</v>
+      <c r="C115" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>39</v>
@@ -8228,10 +8336,10 @@
         <v>3</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M115" s="1">
         <v>100</v>
@@ -8246,15 +8354,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>296</v>
+      <c r="C116" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>39</v>
@@ -8294,15 +8402,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>281</v>
+      <c r="C117" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>39</v>
@@ -8342,15 +8450,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>297</v>
+        <v>129</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>39</v>
@@ -8371,7 +8479,7 @@
         <v>3</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K118" s="1">
         <v>5</v>
@@ -8390,14 +8498,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C119" s="15">
+      <c r="C119" s="13">
         <v>68</v>
       </c>
       <c r="D119" s="4" t="s">
@@ -8419,7 +8527,7 @@
         <v>3</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K119" s="1">
         <v>10</v>
@@ -8438,15 +8546,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>298</v>
+      <c r="C120" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>39</v>
@@ -8467,7 +8575,7 @@
         <v>3</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K120" s="1">
         <v>20</v>
@@ -8486,14 +8594,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="15">
+        <v>131</v>
+      </c>
+      <c r="C121" s="13">
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -8518,10 +8626,10 @@
         <v>3</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M121" s="1">
         <v>500</v>
@@ -8536,15 +8644,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>273</v>
+      <c r="C122" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>20</v>
@@ -8568,10 +8676,10 @@
         <v>3</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M122" s="1">
         <v>500</v>
@@ -8586,15 +8694,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>299</v>
+        <v>133</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>39</v>
@@ -8634,14 +8742,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C124" s="15">
+      <c r="C124" s="13">
         <v>50</v>
       </c>
       <c r="D124" s="4" t="s">
@@ -8682,15 +8790,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>300</v>
+      <c r="C125" s="15" t="s">
+        <v>299</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>39</v>
@@ -8730,14 +8838,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" s="15">
+        <v>135</v>
+      </c>
+      <c r="C126" s="13">
         <v>50</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -8759,7 +8867,7 @@
         <v>7</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K126" s="1">
         <v>10</v>
@@ -8778,15 +8886,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>301</v>
+      <c r="C127" s="15" t="s">
+        <v>300</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>10</v>
@@ -8807,7 +8915,7 @@
         <v>7</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K127" s="9" t="s">
         <v>13</v>
@@ -8826,15 +8934,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>302</v>
+        <v>137</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>301</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>39</v>
@@ -8858,14 +8966,14 @@
         <v>57</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L128" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="L128" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="M128" s="6"/>
       <c r="N128" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>14</v>
@@ -8874,15 +8982,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>303</v>
+      <c r="C129" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>39</v>
@@ -8905,15 +9013,15 @@
       <c r="J129" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K129" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L129" s="13" t="s">
-        <v>211</v>
+      <c r="K129" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L129" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="M129" s="6"/>
       <c r="N129" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>14</v>
@@ -8922,15 +9030,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>304</v>
+        <v>138</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>39</v>
@@ -8970,15 +9078,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>305</v>
+        <v>138</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>39</v>
@@ -9018,15 +9126,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>306</v>
+        <v>138</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>10</v>
@@ -9066,15 +9174,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>307</v>
+        <v>138</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -9114,15 +9222,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>308</v>
+        <v>138</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>20</v>
@@ -9162,15 +9270,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>309</v>
+        <v>138</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>20</v>
@@ -9210,14 +9318,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C136" s="15">
+        <v>139</v>
+      </c>
+      <c r="C136" s="13">
         <v>88</v>
       </c>
       <c r="D136" s="9" t="s">
@@ -9239,7 +9347,7 @@
         <v>14</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>3</v>
@@ -9252,21 +9360,21 @@
         <v>36</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>310</v>
+        <v>139</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
@@ -9287,7 +9395,7 @@
         <v>14</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>3</v>
@@ -9300,24 +9408,24 @@
         <v>36</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" s="15">
+        <v>139</v>
+      </c>
+      <c r="C138" s="13">
         <v>79</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>3</v>
@@ -9335,7 +9443,7 @@
         <v>3</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>3</v>
@@ -9348,25 +9456,25 @@
         <v>36</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P138" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C139" s="15">
+        <v>143</v>
+      </c>
+      <c r="C139" s="13">
         <f>(29+29+26)/3</f>
         <v>28</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>3</v>
@@ -9397,20 +9505,20 @@
         <v>36</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P139" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C140" s="15">
+        <v>146</v>
+      </c>
+      <c r="C140" s="13">
         <v>30</v>
       </c>
       <c r="D140" s="9" t="s">
@@ -9432,7 +9540,7 @@
         <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>3</v>
@@ -9445,21 +9553,21 @@
         <v>36</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>253</v>
+        <v>146</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>39</v>
@@ -9480,7 +9588,7 @@
         <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>3</v>
@@ -9493,20 +9601,20 @@
         <v>36</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P141" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C142" s="15">
+        <v>146</v>
+      </c>
+      <c r="C142" s="13">
         <v>40</v>
       </c>
       <c r="D142" s="9" t="s">
@@ -9528,7 +9636,7 @@
         <v>14</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>3</v>
@@ -9541,20 +9649,20 @@
         <v>36</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C143" s="15">
+        <v>146</v>
+      </c>
+      <c r="C143" s="13">
         <v>34</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -9576,7 +9684,7 @@
         <v>14</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>3</v>
@@ -9589,20 +9697,20 @@
         <v>36</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P143" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C144" s="15">
+        <v>146</v>
+      </c>
+      <c r="C144" s="13">
         <v>50</v>
       </c>
       <c r="D144" s="9" t="s">
@@ -9624,7 +9732,7 @@
         <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>3</v>
@@ -9637,21 +9745,21 @@
         <v>36</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>218</v>
+        <v>146</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>39</v>
@@ -9672,7 +9780,7 @@
         <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>3</v>
@@ -9685,21 +9793,21 @@
         <v>36</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>311</v>
+        <v>146</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>39</v>
@@ -9720,7 +9828,7 @@
         <v>14</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>3</v>
@@ -9733,39 +9841,39 @@
         <v>36</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P146" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="2">
+        <v>3</v>
+      </c>
+      <c r="I147" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" s="2">
-        <v>3</v>
-      </c>
-      <c r="I147" s="18" t="s">
-        <v>313</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>3</v>
@@ -9781,20 +9889,20 @@
         <v>36</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P147" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="15">
+        <v>148</v>
+      </c>
+      <c r="C148" s="13">
         <v>89</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -9829,7 +9937,7 @@
         <v>36</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>37</v>

--- a/Sota Table R Analysis/SOTA Table (dots).xlsx
+++ b/Sota Table R Analysis/SOTA Table (dots).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/sl57wj_student_aau_dk/Documents/Projektmapper/P4 Projekt/RasaForPi/RasaForPi/Sota Table R Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5A495363-46F2-7247-9A3D-1B48016079B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE86701-080C-4C43-9CCF-17B766F7C733}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64428770-49C0-1C49-8327-1861CDF7D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2092,39 +2092,6 @@
     <t>Incentive Amount</t>
   </si>
   <si>
-    <t>2; 100</t>
-  </si>
-  <si>
-    <t>2; 50</t>
-  </si>
-  <si>
-    <t>2; Lottery</t>
-  </si>
-  <si>
-    <t>20; NM</t>
-  </si>
-  <si>
-    <t>Lottery; NM</t>
-  </si>
-  <si>
-    <t>NM; 25</t>
-  </si>
-  <si>
-    <t>Before; After</t>
-  </si>
-  <si>
-    <t>Monetary; Lottery</t>
-  </si>
-  <si>
-    <t>Monetary; NM</t>
-  </si>
-  <si>
-    <t>NM; Monetary</t>
-  </si>
-  <si>
-    <t>Open-response; Closed-response</t>
-  </si>
-  <si>
     <t>34.1</t>
   </si>
   <si>
@@ -2426,13 +2393,46 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>NM/Monetary</t>
+  </si>
+  <si>
+    <t>NM/25</t>
+  </si>
+  <si>
+    <t>Open-response/Closed-response</t>
+  </si>
+  <si>
+    <t>Before/After</t>
+  </si>
+  <si>
+    <t>2/Lottery</t>
+  </si>
+  <si>
+    <t>Monetary/Lottery</t>
+  </si>
+  <si>
+    <t>2/100</t>
+  </si>
+  <si>
+    <t>20/NM</t>
+  </si>
+  <si>
+    <t>Monetary/NM</t>
+  </si>
+  <si>
+    <t>Lottery/NM</t>
+  </si>
+  <si>
+    <t>2/50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2502,12 +2502,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2535,7 +2529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2560,7 +2554,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2569,6 +2562,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2790,17 +2785,17 @@
   <dimension ref="A1:P148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="7" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
@@ -2819,7 +2814,7 @@
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2869,7 +2864,7 @@
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2917,7 +2912,7 @@
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2965,7 +2960,7 @@
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3013,7 +3008,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3061,8 +3056,8 @@
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>212</v>
+      <c r="C6" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
@@ -3109,7 +3104,7 @@
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3157,8 +3152,8 @@
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>213</v>
+      <c r="C8" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>39</v>
@@ -3205,7 +3200,7 @@
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3253,8 +3248,8 @@
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>214</v>
+      <c r="C10" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -3301,8 +3296,8 @@
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>215</v>
+      <c r="C11" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>39</v>
@@ -3349,8 +3344,8 @@
       <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>216</v>
+      <c r="C12" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>39</v>
@@ -3397,8 +3392,8 @@
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>217</v>
+      <c r="C13" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>39</v>
@@ -3445,8 +3440,8 @@
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>218</v>
+      <c r="C14" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>39</v>
@@ -3493,8 +3488,8 @@
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>219</v>
+      <c r="C15" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>39</v>
@@ -3541,8 +3536,8 @@
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>220</v>
+      <c r="C16" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>39</v>
@@ -3589,8 +3584,8 @@
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>221</v>
+      <c r="C17" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
@@ -3637,8 +3632,8 @@
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>222</v>
+      <c r="C18" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -3685,8 +3680,8 @@
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>223</v>
+      <c r="C19" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>39</v>
@@ -3733,7 +3728,7 @@
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3781,8 +3776,8 @@
       <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>224</v>
+      <c r="C21" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>39</v>
@@ -3829,8 +3824,8 @@
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>225</v>
+      <c r="C22" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
@@ -3877,8 +3872,8 @@
       <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>226</v>
+      <c r="C23" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>39</v>
@@ -3925,8 +3920,8 @@
       <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>227</v>
+      <c r="C24" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>39</v>
@@ -3973,8 +3968,8 @@
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>228</v>
+      <c r="C25" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>142</v>
@@ -4021,7 +4016,7 @@
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4069,7 +4064,7 @@
       <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>96</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -4117,7 +4112,7 @@
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>83</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -4165,7 +4160,7 @@
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -4213,7 +4208,7 @@
       <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -4261,8 +4256,8 @@
       <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>225</v>
+      <c r="C31" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>39</v>
@@ -4293,7 +4288,7 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="9" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>14</v>
@@ -4309,8 +4304,8 @@
       <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>229</v>
+      <c r="C32" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>39</v>
@@ -4357,8 +4352,8 @@
       <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>230</v>
+      <c r="C33" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>39</v>
@@ -4405,7 +4400,7 @@
       <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -4453,7 +4448,7 @@
       <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -4501,7 +4496,7 @@
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -4549,7 +4544,7 @@
       <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4597,7 +4592,7 @@
       <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -4645,8 +4640,8 @@
       <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>231</v>
+      <c r="C39" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
@@ -4693,8 +4688,8 @@
       <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>231</v>
+      <c r="C40" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>10</v>
@@ -4741,8 +4736,8 @@
       <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>232</v>
+      <c r="C41" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>10</v>
@@ -4791,8 +4786,8 @@
       <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>233</v>
+      <c r="C42" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>10</v>
@@ -4816,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>203</v>
+        <v>306</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="M42" s="1">
         <v>200</v>
@@ -4841,8 +4836,8 @@
       <c r="B43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>234</v>
+      <c r="C43" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>10</v>
@@ -4889,8 +4884,8 @@
       <c r="B44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>235</v>
+      <c r="C44" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>10</v>
@@ -4913,15 +4908,15 @@
       <c r="J44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>202</v>
+      <c r="K44" s="17" t="s">
+        <v>312</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="9" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>14</v>
@@ -4937,8 +4932,8 @@
       <c r="B45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>236</v>
+      <c r="C45" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>10</v>
@@ -4962,14 +4957,14 @@
         <v>3</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="9" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>14</v>
@@ -4985,8 +4980,8 @@
       <c r="B46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>237</v>
+      <c r="C46" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>39</v>
@@ -5033,8 +5028,8 @@
       <c r="B47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>238</v>
+      <c r="C47" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>39</v>
@@ -5081,8 +5076,8 @@
       <c r="B48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>239</v>
+      <c r="C48" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>39</v>
@@ -5129,8 +5124,8 @@
       <c r="B49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>240</v>
+      <c r="C49" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>39</v>
@@ -5177,7 +5172,7 @@
       <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -5225,8 +5220,8 @@
       <c r="B51" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>241</v>
+      <c r="C51" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>20</v>
@@ -5275,8 +5270,8 @@
       <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>242</v>
+      <c r="C52" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>10</v>
@@ -5325,8 +5320,8 @@
       <c r="B53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>243</v>
+      <c r="C53" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
@@ -5373,8 +5368,8 @@
       <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>244</v>
+      <c r="C54" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
@@ -5421,8 +5416,8 @@
       <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>245</v>
+      <c r="C55" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>20</v>
@@ -5469,8 +5464,8 @@
       <c r="B56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>246</v>
+      <c r="C56" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>10</v>
@@ -5519,8 +5514,8 @@
       <c r="B57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>247</v>
+      <c r="C57" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>10</v>
@@ -5569,8 +5564,8 @@
       <c r="B58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>244</v>
+      <c r="C58" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>10</v>
@@ -5617,8 +5612,8 @@
       <c r="B59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>248</v>
+      <c r="C59" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>39</v>
@@ -5667,8 +5662,8 @@
       <c r="B60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>249</v>
+      <c r="C60" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>39</v>
@@ -5715,8 +5710,8 @@
       <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>250</v>
+      <c r="C61" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
@@ -5765,8 +5760,8 @@
       <c r="B62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>251</v>
+      <c r="C62" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
@@ -5813,8 +5808,8 @@
       <c r="B63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>252</v>
+      <c r="C63" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>10</v>
@@ -5861,8 +5856,8 @@
       <c r="B64" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>253</v>
+      <c r="C64" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>10</v>
@@ -5909,8 +5904,8 @@
       <c r="B65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>254</v>
+      <c r="C65" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>39</v>
@@ -5957,8 +5952,8 @@
       <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>255</v>
+      <c r="C66" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>39</v>
@@ -6005,7 +6000,7 @@
       <c r="B67" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="12">
         <v>51</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -6053,8 +6048,8 @@
       <c r="B68" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>256</v>
+      <c r="C68" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>39</v>
@@ -6101,8 +6096,8 @@
       <c r="B69" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>257</v>
+      <c r="C69" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>39</v>
@@ -6149,8 +6144,8 @@
       <c r="B70" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>258</v>
+      <c r="C70" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>39</v>
@@ -6197,8 +6192,8 @@
       <c r="B71" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>259</v>
+      <c r="C71" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>39</v>
@@ -6245,8 +6240,8 @@
       <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>260</v>
+      <c r="C72" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>39</v>
@@ -6293,8 +6288,8 @@
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>261</v>
+      <c r="C73" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>39</v>
@@ -6341,8 +6336,8 @@
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="15" t="s">
-        <v>262</v>
+      <c r="C74" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>39</v>
@@ -6389,8 +6384,8 @@
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>263</v>
+      <c r="C75" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>39</v>
@@ -6437,8 +6432,8 @@
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="15" t="s">
-        <v>264</v>
+      <c r="C76" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>39</v>
@@ -6485,8 +6480,8 @@
       <c r="B77" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>265</v>
+      <c r="C77" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>39</v>
@@ -6533,8 +6528,8 @@
       <c r="B78" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>266</v>
+      <c r="C78" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>39</v>
@@ -6581,8 +6576,8 @@
       <c r="B79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>267</v>
+      <c r="C79" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>39</v>
@@ -6629,8 +6624,8 @@
       <c r="B80" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="15" t="s">
-        <v>268</v>
+      <c r="C80" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>20</v>
@@ -6677,8 +6672,8 @@
       <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>269</v>
+      <c r="C81" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
@@ -6725,8 +6720,8 @@
       <c r="B82" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>270</v>
+      <c r="C82" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>39</v>
@@ -6773,8 +6768,8 @@
       <c r="B83" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>271</v>
+      <c r="C83" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>10</v>
@@ -6821,8 +6816,8 @@
       <c r="B84" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>272</v>
+      <c r="C84" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>39</v>
@@ -6869,8 +6864,8 @@
       <c r="B85" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>273</v>
+      <c r="C85" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>20</v>
@@ -6917,8 +6912,8 @@
       <c r="B86" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>274</v>
+      <c r="C86" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>20</v>
@@ -6965,8 +6960,8 @@
       <c r="B87" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>275</v>
+      <c r="C87" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>20</v>
@@ -7013,8 +7008,8 @@
       <c r="B88" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>276</v>
+      <c r="C88" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>20</v>
@@ -7061,8 +7056,8 @@
       <c r="B89" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>277</v>
+      <c r="C89" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>10</v>
@@ -7109,7 +7104,7 @@
       <c r="B90" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="12">
         <v>52</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -7157,7 +7152,7 @@
       <c r="B91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="12">
         <v>63</v>
       </c>
       <c r="D91" s="4" t="s">
@@ -7205,8 +7200,8 @@
       <c r="B92" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>278</v>
+      <c r="C92" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>39</v>
@@ -7253,8 +7248,8 @@
       <c r="B93" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>279</v>
+      <c r="C93" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>39</v>
@@ -7301,8 +7296,8 @@
       <c r="B94" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>280</v>
+      <c r="C94" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>39</v>
@@ -7349,8 +7344,8 @@
       <c r="B95" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="15" t="s">
-        <v>249</v>
+      <c r="C95" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>39</v>
@@ -7397,8 +7392,8 @@
       <c r="B96" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>281</v>
+      <c r="C96" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>39</v>
@@ -7445,8 +7440,8 @@
       <c r="B97" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>282</v>
+      <c r="C97" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>39</v>
@@ -7493,8 +7488,8 @@
       <c r="B98" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>283</v>
+      <c r="C98" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>20</v>
@@ -7541,8 +7536,8 @@
       <c r="B99" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>225</v>
+      <c r="C99" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>39</v>
@@ -7589,8 +7584,8 @@
       <c r="B100" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>284</v>
+      <c r="C100" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>39</v>
@@ -7637,8 +7632,8 @@
       <c r="B101" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>285</v>
+      <c r="C101" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>39</v>
@@ -7685,8 +7680,8 @@
       <c r="B102" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>286</v>
+      <c r="C102" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>39</v>
@@ -7733,8 +7728,8 @@
       <c r="B103" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>259</v>
+      <c r="C103" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>39</v>
@@ -7781,8 +7776,8 @@
       <c r="B104" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>287</v>
+      <c r="C104" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>20</v>
@@ -7829,8 +7824,8 @@
       <c r="B105" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>287</v>
+      <c r="C105" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>20</v>
@@ -7877,7 +7872,7 @@
       <c r="B106" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="12">
         <v>63</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -7925,8 +7920,8 @@
       <c r="B107" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="15" t="s">
-        <v>288</v>
+      <c r="C107" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>20</v>
@@ -7950,10 +7945,10 @@
         <v>3</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1" t="s">
@@ -7973,8 +7968,8 @@
       <c r="B108" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>289</v>
+      <c r="C108" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>39</v>
@@ -8021,8 +8016,8 @@
       <c r="B109" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="15" t="s">
-        <v>290</v>
+      <c r="C109" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>39</v>
@@ -8069,8 +8064,8 @@
       <c r="B110" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C110" s="15" t="s">
-        <v>291</v>
+      <c r="C110" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>39</v>
@@ -8091,7 +8086,7 @@
         <v>3</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="K110" s="1">
         <v>25</v>
@@ -8117,8 +8112,8 @@
       <c r="B111" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="15" t="s">
-        <v>291</v>
+      <c r="C111" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>39</v>
@@ -8139,7 +8134,7 @@
         <v>3</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="K111" s="1">
         <v>25</v>
@@ -8165,8 +8160,8 @@
       <c r="B112" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="15" t="s">
-        <v>289</v>
+      <c r="C112" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>39</v>
@@ -8213,8 +8208,8 @@
       <c r="B113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C113" s="15" t="s">
-        <v>292</v>
+      <c r="C113" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>39</v>
@@ -8261,8 +8256,8 @@
       <c r="B114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>293</v>
+      <c r="C114" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>39</v>
@@ -8311,8 +8306,8 @@
       <c r="B115" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C115" s="15" t="s">
-        <v>294</v>
+      <c r="C115" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>39</v>
@@ -8361,8 +8356,8 @@
       <c r="B116" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="15" t="s">
-        <v>295</v>
+      <c r="C116" s="14" t="s">
+        <v>284</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>39</v>
@@ -8409,8 +8404,8 @@
       <c r="B117" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="15" t="s">
-        <v>280</v>
+      <c r="C117" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>39</v>
@@ -8457,8 +8452,8 @@
       <c r="B118" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C118" s="15" t="s">
-        <v>296</v>
+      <c r="C118" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>39</v>
@@ -8505,7 +8500,7 @@
       <c r="B119" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="12">
         <v>68</v>
       </c>
       <c r="D119" s="4" t="s">
@@ -8553,8 +8548,8 @@
       <c r="B120" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="15" t="s">
-        <v>297</v>
+      <c r="C120" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>39</v>
@@ -8601,7 +8596,7 @@
       <c r="B121" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="12">
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -8626,10 +8621,10 @@
         <v>3</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="M121" s="1">
         <v>500</v>
@@ -8651,8 +8646,8 @@
       <c r="B122" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="15" t="s">
-        <v>272</v>
+      <c r="C122" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>20</v>
@@ -8701,8 +8696,8 @@
       <c r="B123" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="15" t="s">
-        <v>298</v>
+      <c r="C123" s="14" t="s">
+        <v>287</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>39</v>
@@ -8749,7 +8744,7 @@
       <c r="B124" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="12">
         <v>50</v>
       </c>
       <c r="D124" s="4" t="s">
@@ -8797,8 +8792,8 @@
       <c r="B125" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="15" t="s">
-        <v>299</v>
+      <c r="C125" s="14" t="s">
+        <v>288</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>39</v>
@@ -8845,7 +8840,7 @@
       <c r="B126" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="12">
         <v>50</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -8866,8 +8861,8 @@
       <c r="I126" s="1">
         <v>7</v>
       </c>
-      <c r="J126" s="9" t="s">
-        <v>211</v>
+      <c r="J126" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="K126" s="1">
         <v>10</v>
@@ -8893,8 +8888,8 @@
       <c r="B127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="15" t="s">
-        <v>300</v>
+      <c r="C127" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>10</v>
@@ -8914,8 +8909,8 @@
       <c r="I127" s="1">
         <v>7</v>
       </c>
-      <c r="J127" s="9" t="s">
-        <v>211</v>
+      <c r="J127" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="K127" s="9" t="s">
         <v>13</v>
@@ -8941,8 +8936,8 @@
       <c r="B128" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="15" t="s">
-        <v>301</v>
+      <c r="C128" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>39</v>
@@ -8965,15 +8960,15 @@
       <c r="J128" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K128" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="L128" s="12" t="s">
-        <v>210</v>
+      <c r="K128" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="M128" s="6"/>
-      <c r="N128" s="10" t="s">
-        <v>207</v>
+      <c r="N128" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>14</v>
@@ -8989,8 +8984,8 @@
       <c r="B129" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="15" t="s">
-        <v>302</v>
+      <c r="C129" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>39</v>
@@ -9013,15 +9008,15 @@
       <c r="J129" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K129" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="L129" s="12" t="s">
-        <v>210</v>
+      <c r="K129" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="M129" s="6"/>
-      <c r="N129" s="10" t="s">
-        <v>207</v>
+      <c r="N129" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>14</v>
@@ -9037,8 +9032,8 @@
       <c r="B130" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="15" t="s">
-        <v>303</v>
+      <c r="C130" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>39</v>
@@ -9085,8 +9080,8 @@
       <c r="B131" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C131" s="15" t="s">
-        <v>304</v>
+      <c r="C131" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>39</v>
@@ -9133,8 +9128,8 @@
       <c r="B132" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="15" t="s">
-        <v>305</v>
+      <c r="C132" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>10</v>
@@ -9181,8 +9176,8 @@
       <c r="B133" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C133" s="15" t="s">
-        <v>306</v>
+      <c r="C133" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -9229,8 +9224,8 @@
       <c r="B134" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="15" t="s">
-        <v>307</v>
+      <c r="C134" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>20</v>
@@ -9277,8 +9272,8 @@
       <c r="B135" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="15" t="s">
-        <v>308</v>
+      <c r="C135" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>20</v>
@@ -9325,7 +9320,7 @@
       <c r="B136" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="12">
         <v>88</v>
       </c>
       <c r="D136" s="9" t="s">
@@ -9373,8 +9368,8 @@
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C137" s="15" t="s">
-        <v>309</v>
+      <c r="C137" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
@@ -9421,7 +9416,7 @@
       <c r="B138" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="12">
         <v>79</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -9469,7 +9464,7 @@
       <c r="B139" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="12">
         <f>(29+29+26)/3</f>
         <v>28</v>
       </c>
@@ -9518,7 +9513,7 @@
       <c r="B140" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="12">
         <v>30</v>
       </c>
       <c r="D140" s="9" t="s">
@@ -9566,8 +9561,8 @@
       <c r="B141" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C141" s="15" t="s">
-        <v>252</v>
+      <c r="C141" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>39</v>
@@ -9614,7 +9609,7 @@
       <c r="B142" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="12">
         <v>40</v>
       </c>
       <c r="D142" s="9" t="s">
@@ -9662,7 +9657,7 @@
       <c r="B143" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="12">
         <v>34</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -9710,7 +9705,7 @@
       <c r="B144" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="12">
         <v>50</v>
       </c>
       <c r="D144" s="9" t="s">
@@ -9758,8 +9753,8 @@
       <c r="B145" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C145" s="15" t="s">
-        <v>217</v>
+      <c r="C145" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>39</v>
@@ -9806,8 +9801,8 @@
       <c r="B146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="15" t="s">
-        <v>310</v>
+      <c r="C146" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>39</v>
@@ -9854,8 +9849,8 @@
       <c r="B147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="15" t="s">
-        <v>311</v>
+      <c r="C147" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>144</v>
@@ -9872,8 +9867,8 @@
       <c r="H147" s="2">
         <v>3</v>
       </c>
-      <c r="I147" s="16" t="s">
-        <v>312</v>
+      <c r="I147" s="15" t="s">
+        <v>301</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>3</v>
@@ -9902,7 +9897,7 @@
       <c r="B148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="12">
         <v>89</v>
       </c>
       <c r="D148" s="1" t="s">

--- a/Sota Table R Analysis/SOTA Table (dots).xlsx
+++ b/Sota Table R Analysis/SOTA Table (dots).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/sl57wj_student_aau_dk/Documents/Projektmapper/P4 Projekt/RasaForPi/RasaForPi/Sota Table R Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/sl57wj_student_aau_dk/Documents/Projektmapper/P4-Projekt/RasaForPi/RasaForPi/Sota Table R Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64428770-49C0-1C49-8327-1861CDF7D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{64428770-49C0-1C49-8327-1861CDF7D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48B8BFD3-1C94-0744-A7BC-7402E6906A2A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="312">
   <si>
     <t>Medium</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Sheenan K. B.</t>
-  </si>
-  <si>
-    <t>E-mail</t>
   </si>
   <si>
     <t>Peters M. et al.</t>
@@ -2785,10 +2782,10 @@
   <dimension ref="A1:P148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2809,66 +2806,66 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -2880,43 +2877,43 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1">
         <v>10</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -2928,43 +2925,43 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -2976,43 +2973,43 @@
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -3024,74 +3021,74 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>3</v>
@@ -3099,16 +3096,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C7" s="12">
         <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -3120,26 +3117,26 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>3</v>
@@ -3147,16 +3144,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -3168,7 +3165,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1">
         <v>30</v>
@@ -3180,14 +3177,14 @@
         <v>1</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>3</v>
@@ -3195,16 +3192,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12">
         <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -3216,7 +3213,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1">
         <v>30</v>
@@ -3228,14 +3225,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>3</v>
@@ -3243,16 +3240,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -3276,31 +3273,31 @@
         <v>2</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -3324,31 +3321,31 @@
         <v>5</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -3360,43 +3357,43 @@
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -3408,43 +3405,43 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -3456,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1">
         <v>42</v>
@@ -3465,34 +3462,34 @@
         <v>3</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
@@ -3504,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1">
         <v>42</v>
@@ -3513,34 +3510,34 @@
         <v>3</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
@@ -3552,7 +3549,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1">
         <v>42</v>
@@ -3561,34 +3558,34 @@
         <v>3</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C17" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -3600,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1">
         <v>42</v>
@@ -3609,34 +3606,34 @@
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>3</v>
@@ -3654,37 +3651,37 @@
         <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C19" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>3</v>
@@ -3702,31 +3699,31 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="12">
         <v>74</v>
@@ -3753,17 +3750,17 @@
         <v>3</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>3</v>
@@ -3771,16 +3768,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -3804,14 +3801,14 @@
         <v>20</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>3</v>
@@ -3819,16 +3816,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C22" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -3852,14 +3849,14 @@
         <v>20</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>3</v>
@@ -3867,16 +3864,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -3888,26 +3885,26 @@
         <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>3</v>
@@ -3915,16 +3912,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C24" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -3936,26 +3933,26 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>3</v>
@@ -3963,16 +3960,16 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>3</v>
@@ -3984,43 +3981,43 @@
         <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C26" s="12">
         <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>3</v>
@@ -4032,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>3</v>
@@ -4041,34 +4038,34 @@
         <v>3</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="12">
         <v>96</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -4089,17 +4086,17 @@
         <v>3</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>3</v>
@@ -4107,16 +4104,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="12">
         <v>83</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -4137,17 +4134,17 @@
         <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>3</v>
@@ -4155,16 +4152,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C29" s="12">
         <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -4185,17 +4182,17 @@
         <v>3</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>3</v>
@@ -4203,16 +4200,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="12">
         <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -4233,17 +4230,17 @@
         <v>3</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>3</v>
@@ -4251,16 +4248,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
@@ -4272,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>3</v>
@@ -4284,14 +4281,14 @@
         <v>45</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>3</v>
@@ -4299,16 +4296,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
@@ -4329,17 +4326,17 @@
         <v>3</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>3</v>
@@ -4347,16 +4344,16 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C33" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
@@ -4377,17 +4374,17 @@
         <v>3</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>3</v>
@@ -4395,16 +4392,16 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="12">
         <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>3</v>
@@ -4416,7 +4413,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="1">
         <v>28</v>
@@ -4425,17 +4422,17 @@
         <v>3</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>3</v>
@@ -4443,16 +4440,16 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C35" s="12">
         <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>3</v>
@@ -4476,14 +4473,14 @@
         <v>5</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>3</v>
@@ -4491,16 +4488,16 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C36" s="12">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>3</v>
@@ -4521,17 +4518,17 @@
         <v>3</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>3</v>
@@ -4539,16 +4536,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C37" s="12">
         <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>3</v>
@@ -4572,14 +4569,14 @@
         <v>5</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>3</v>
@@ -4587,16 +4584,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>3</v>
@@ -4617,34 +4614,34 @@
         <v>3</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C39" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>3</v>
@@ -4668,31 +4665,31 @@
         <v>2</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C40" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>3</v>
@@ -4713,34 +4710,34 @@
         <v>3</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C41" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>3</v>
@@ -4761,36 +4758,36 @@
         <v>3</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M41" s="1">
         <v>200</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C42" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>3</v>
@@ -4811,36 +4808,36 @@
         <v>3</v>
       </c>
       <c r="K42" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="M42" s="1">
         <v>200</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C43" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>3</v>
@@ -4864,31 +4861,31 @@
         <v>50</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C44" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>3</v>
@@ -4909,34 +4906,34 @@
         <v>3</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C45" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>3</v>
@@ -4957,34 +4954,34 @@
         <v>3</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -5008,14 +5005,14 @@
         <v>1</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>3</v>
@@ -5023,16 +5020,16 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C47" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -5053,17 +5050,17 @@
         <v>3</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>3</v>
@@ -5071,16 +5068,16 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1">
         <v>13</v>
@@ -5092,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" s="1">
         <v>30</v>
@@ -5101,17 +5098,17 @@
         <v>3</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>3</v>
@@ -5119,16 +5116,16 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C49" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" s="1">
         <v>13</v>
@@ -5140,26 +5137,26 @@
         <v>3</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>3</v>
@@ -5167,16 +5164,16 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="12">
         <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>3</v>
@@ -5188,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I50" s="1">
         <v>21</v>
@@ -5197,17 +5194,17 @@
         <v>3</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>3</v>
@@ -5215,16 +5212,16 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="8">
         <v>12</v>
@@ -5245,19 +5242,19 @@
         <v>3</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>3</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>3</v>
@@ -5265,49 +5262,49 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="2">
-        <v>3</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>3</v>
@@ -5315,16 +5312,16 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C53" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>3</v>
@@ -5345,17 +5342,17 @@
         <v>3</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>3</v>
@@ -5363,16 +5360,16 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>3</v>
@@ -5390,37 +5387,37 @@
         <v>7</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C55" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>3</v>
@@ -5438,37 +5435,37 @@
         <v>7</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>3</v>
@@ -5480,7 +5477,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I56" s="1">
         <v>5</v>
@@ -5489,36 +5486,36 @@
         <v>3</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M56" s="1">
         <v>5000</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C57" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>3</v>
@@ -5530,7 +5527,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I57" s="1">
         <v>5</v>
@@ -5539,36 +5536,36 @@
         <v>3</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M57" s="1">
         <v>250</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C58" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>3</v>
@@ -5580,7 +5577,7 @@
         <v>5</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I58" s="1">
         <v>5</v>
@@ -5589,34 +5586,34 @@
         <v>3</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C59" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>3</v>
@@ -5628,7 +5625,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>3</v>
@@ -5637,36 +5634,36 @@
         <v>3</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M59" s="1">
         <v>200</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C60" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>3</v>
@@ -5678,7 +5675,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>3</v>
@@ -5690,31 +5687,31 @@
         <v>5</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C61" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>3</v>
@@ -5726,7 +5723,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I61" s="1">
         <v>5</v>
@@ -5735,36 +5732,36 @@
         <v>3</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M61" s="1">
         <v>2500</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C62" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>3</v>
@@ -5776,7 +5773,7 @@
         <v>5</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I62" s="1">
         <v>5</v>
@@ -5788,31 +5785,31 @@
         <v>10</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>3</v>
@@ -5824,7 +5821,7 @@
         <v>5</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I63" s="1">
         <v>7</v>
@@ -5833,34 +5830,34 @@
         <v>3</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P63" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C64" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>3</v>
@@ -5872,7 +5869,7 @@
         <v>5</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I64" s="1">
         <v>7</v>
@@ -5881,34 +5878,34 @@
         <v>3</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" s="1">
         <v>7</v>
@@ -5920,7 +5917,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>3</v>
@@ -5929,17 +5926,17 @@
         <v>3</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>3</v>
@@ -5947,16 +5944,16 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C66" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E66" s="1">
         <v>7</v>
@@ -5968,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>3</v>
@@ -5977,17 +5974,17 @@
         <v>3</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>3</v>
@@ -5995,16 +5992,16 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C67" s="12">
         <v>51</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E67" s="1">
         <v>7</v>
@@ -6016,7 +6013,7 @@
         <v>3</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>3</v>
@@ -6028,14 +6025,14 @@
         <v>1</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>3</v>
@@ -6043,16 +6040,16 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C68" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" s="1">
         <v>7</v>
@@ -6064,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>3</v>
@@ -6076,14 +6073,14 @@
         <v>2</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>3</v>
@@ -6091,16 +6088,16 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C69" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" s="1">
         <v>7</v>
@@ -6112,7 +6109,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>3</v>
@@ -6124,14 +6121,14 @@
         <v>5</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>3</v>
@@ -6139,16 +6136,16 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>3</v>
@@ -6160,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>3</v>
@@ -6169,34 +6166,34 @@
         <v>3</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C71" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>3</v>
@@ -6217,34 +6214,34 @@
         <v>3</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C72" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>3</v>
@@ -6256,7 +6253,7 @@
         <v>3</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>3</v>
@@ -6265,34 +6262,34 @@
         <v>3</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E73" s="1">
         <v>8</v>
@@ -6304,7 +6301,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I73" s="1">
         <v>42</v>
@@ -6316,14 +6313,14 @@
         <v>25</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>3</v>
@@ -6331,16 +6328,16 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C74" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E74" s="1">
         <v>8</v>
@@ -6352,7 +6349,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I74" s="1">
         <v>42</v>
@@ -6364,14 +6361,14 @@
         <v>25</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>3</v>
@@ -6379,16 +6376,16 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C75" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E75" s="1">
         <v>8</v>
@@ -6400,7 +6397,7 @@
         <v>3</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I75" s="1">
         <v>42</v>
@@ -6412,14 +6409,14 @@
         <v>25</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>3</v>
@@ -6427,16 +6424,16 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C76" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E76" s="1">
         <v>8</v>
@@ -6448,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I76" s="1">
         <v>42</v>
@@ -6460,14 +6457,14 @@
         <v>25</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>3</v>
@@ -6475,16 +6472,16 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>3</v>
@@ -6496,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I77" s="1">
         <v>30</v>
@@ -6508,14 +6505,14 @@
         <v>10</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>3</v>
@@ -6523,16 +6520,16 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C78" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>3</v>
@@ -6544,7 +6541,7 @@
         <v>3</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I78" s="1">
         <v>30</v>
@@ -6556,14 +6553,14 @@
         <v>10</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>3</v>
@@ -6571,16 +6568,16 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C79" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>3</v>
@@ -6592,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I79" s="1">
         <v>30</v>
@@ -6601,17 +6598,17 @@
         <v>3</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>3</v>
@@ -6619,16 +6616,16 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80" s="1">
         <v>13</v>
@@ -6652,14 +6649,14 @@
         <v>50</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>3</v>
@@ -6667,16 +6664,16 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C81" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81" s="1">
         <v>13</v>
@@ -6700,14 +6697,14 @@
         <v>20</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>3</v>
@@ -6715,16 +6712,16 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>3</v>
@@ -6748,31 +6745,31 @@
         <v>3</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C83" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>3</v>
@@ -6796,31 +6793,31 @@
         <v>3</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E84" s="1">
         <v>10</v>
@@ -6832,43 +6829,43 @@
         <v>15</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C85" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85" s="1">
         <v>10</v>
@@ -6880,7 +6877,7 @@
         <v>15</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I85" s="1">
         <v>60</v>
@@ -6889,34 +6886,34 @@
         <v>3</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C86" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E86" s="1">
         <v>10</v>
@@ -6928,7 +6925,7 @@
         <v>15</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>3</v>
@@ -6940,31 +6937,31 @@
         <v>50</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P86" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>3</v>
@@ -6976,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I87" s="1">
         <v>21</v>
@@ -6988,31 +6985,31 @@
         <v>100</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C88" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>3</v>
@@ -7024,7 +7021,7 @@
         <v>3</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I88" s="1">
         <v>21</v>
@@ -7036,31 +7033,31 @@
         <v>100</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>3</v>
@@ -7081,34 +7078,34 @@
         <v>3</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C90" s="12">
         <v>52</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>3</v>
@@ -7129,34 +7126,34 @@
         <v>3</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C91" s="12">
         <v>63</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>3</v>
@@ -7168,7 +7165,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I91" s="1">
         <v>28</v>
@@ -7177,34 +7174,34 @@
         <v>3</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C92" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>3</v>
@@ -7216,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I92" s="1">
         <v>28</v>
@@ -7225,34 +7222,34 @@
         <v>3</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C93" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>3</v>
@@ -7264,7 +7261,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I93" s="1">
         <v>28</v>
@@ -7273,34 +7270,34 @@
         <v>3</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C94" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>3</v>
@@ -7312,7 +7309,7 @@
         <v>3</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I94" s="1">
         <v>28</v>
@@ -7321,34 +7318,34 @@
         <v>3</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E95" s="1">
         <v>4</v>
@@ -7360,43 +7357,43 @@
         <v>3</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C96" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E96" s="1">
         <v>4</v>
@@ -7408,43 +7405,43 @@
         <v>3</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I96" s="1">
         <v>45</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C97" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E97" s="1">
         <v>4</v>
@@ -7456,43 +7453,43 @@
         <v>3</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I97" s="1">
         <v>45</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>3</v>
@@ -7513,34 +7510,34 @@
         <v>3</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E99" s="1">
         <v>6</v>
@@ -7552,7 +7549,7 @@
         <v>10</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I99" s="1">
         <v>28</v>
@@ -7564,31 +7561,31 @@
         <v>14</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C100" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E100" s="1">
         <v>6</v>
@@ -7600,7 +7597,7 @@
         <v>10</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I100" s="1">
         <v>28</v>
@@ -7609,34 +7606,34 @@
         <v>3</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -7648,10 +7645,10 @@
         <v>3</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>3</v>
@@ -7660,31 +7657,31 @@
         <v>4</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C102" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -7696,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I102" s="1">
         <v>14</v>
@@ -7708,31 +7705,31 @@
         <v>4</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C103" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -7744,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I103" s="1">
         <v>14</v>
@@ -7756,31 +7753,31 @@
         <v>4</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C104" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -7804,31 +7801,31 @@
         <v>4</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>3</v>
@@ -7840,7 +7837,7 @@
         <v>3</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I105" s="1">
         <v>14</v>
@@ -7852,14 +7849,14 @@
         <v>20</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P105" s="1" t="s">
         <v>3</v>
@@ -7867,16 +7864,16 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C106" s="12">
         <v>63</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>3</v>
@@ -7888,7 +7885,7 @@
         <v>3</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I106" s="1">
         <v>14</v>
@@ -7897,17 +7894,17 @@
         <v>3</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P106" s="1" t="s">
         <v>3</v>
@@ -7915,16 +7912,16 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C107" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>3</v>
@@ -7936,7 +7933,7 @@
         <v>3</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I107" s="1">
         <v>14</v>
@@ -7945,17 +7942,17 @@
         <v>3</v>
       </c>
       <c r="K107" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L107" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="L107" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P107" s="1" t="s">
         <v>3</v>
@@ -7963,16 +7960,16 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>3</v>
@@ -7990,20 +7987,20 @@
         <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P108" s="1" t="s">
         <v>3</v>
@@ -8011,64 +8008,64 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="2">
+        <v>3</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" s="2">
-        <v>3</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="K109" s="1">
         <v>25</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C110" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>3</v>
@@ -8086,20 +8083,20 @@
         <v>3</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K110" s="1">
         <v>25</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P110" s="1" t="s">
         <v>3</v>
@@ -8107,16 +8104,16 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C111" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>3</v>
@@ -8134,20 +8131,20 @@
         <v>3</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K111" s="1">
         <v>25</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>3</v>
@@ -8155,16 +8152,16 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>3</v>
@@ -8185,34 +8182,34 @@
         <v>3</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M112" s="1"/>
       <c r="N112" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C113" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>3</v>
@@ -8233,34 +8230,34 @@
         <v>3</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M113" s="1"/>
       <c r="N113" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C114" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>3</v>
@@ -8281,36 +8278,36 @@
         <v>3</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M114" s="1">
         <v>100</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C115" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>3</v>
@@ -8331,36 +8328,36 @@
         <v>3</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M115" s="1">
         <v>100</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C116" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>3</v>
@@ -8384,31 +8381,31 @@
         <v>5</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C117" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>3</v>
@@ -8432,31 +8429,31 @@
         <v>5</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
@@ -8474,20 +8471,20 @@
         <v>3</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K118" s="1">
         <v>5</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M118" s="1"/>
       <c r="N118" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>3</v>
@@ -8495,16 +8492,16 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C119" s="12">
         <v>68</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>3</v>
@@ -8522,20 +8519,20 @@
         <v>3</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K119" s="1">
         <v>10</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>3</v>
@@ -8543,16 +8540,16 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C120" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>3</v>
@@ -8570,20 +8567,20 @@
         <v>3</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K120" s="1">
         <v>20</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P120" s="1" t="s">
         <v>3</v>
@@ -8591,16 +8588,16 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C121" s="12">
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>3</v>
@@ -8621,19 +8618,19 @@
         <v>3</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M121" s="1">
         <v>500</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P121" s="1" t="s">
         <v>3</v>
@@ -8641,16 +8638,16 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C122" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>3</v>
@@ -8671,19 +8668,19 @@
         <v>3</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M122" s="1">
         <v>500</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P122" s="1" t="s">
         <v>3</v>
@@ -8691,16 +8688,16 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E123" s="1">
         <v>2</v>
@@ -8712,7 +8709,7 @@
         <v>3</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I123" s="1">
         <v>8</v>
@@ -8721,17 +8718,17 @@
         <v>3</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P123" s="1" t="s">
         <v>3</v>
@@ -8739,16 +8736,16 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C124" s="12">
         <v>50</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E124" s="1">
         <v>2</v>
@@ -8760,7 +8757,7 @@
         <v>3</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I124" s="1">
         <v>8</v>
@@ -8769,17 +8766,17 @@
         <v>3</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>3</v>
@@ -8787,16 +8784,16 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C125" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>3</v>
@@ -8808,26 +8805,26 @@
         <v>3</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P125" s="1" t="s">
         <v>3</v>
@@ -8835,16 +8832,16 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="12">
         <v>50</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>3</v>
@@ -8862,20 +8859,20 @@
         <v>7</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K126" s="1">
         <v>10</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P126" s="1" t="s">
         <v>3</v>
@@ -8883,16 +8880,16 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C127" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>3</v>
@@ -8910,20 +8907,20 @@
         <v>7</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>3</v>
@@ -8931,16 +8928,16 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E128" s="1">
         <v>8</v>
@@ -8958,20 +8955,20 @@
         <v>42</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K128" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M128" s="6"/>
       <c r="N128" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>3</v>
@@ -8979,16 +8976,16 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C129" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E129" s="1">
         <v>8</v>
@@ -9006,20 +9003,20 @@
         <v>42</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M129" s="6"/>
       <c r="N129" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P129" s="1" t="s">
         <v>3</v>
@@ -9030,13 +9027,13 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
@@ -9057,17 +9054,17 @@
         <v>3</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M130" s="1"/>
       <c r="N130" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P130" s="1" t="s">
         <v>3</v>
@@ -9078,13 +9075,13 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -9105,17 +9102,17 @@
         <v>3</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P131" s="1" t="s">
         <v>3</v>
@@ -9126,13 +9123,13 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
@@ -9153,17 +9150,17 @@
         <v>3</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M132" s="1"/>
       <c r="N132" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P132" s="1" t="s">
         <v>3</v>
@@ -9174,13 +9171,13 @@
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -9201,17 +9198,17 @@
         <v>3</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M133" s="1"/>
       <c r="N133" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>3</v>
@@ -9222,13 +9219,13 @@
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
@@ -9249,17 +9246,17 @@
         <v>3</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M134" s="1"/>
       <c r="N134" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>3</v>
@@ -9270,13 +9267,13 @@
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E135" s="1">
         <v>2</v>
@@ -9297,17 +9294,17 @@
         <v>3</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>3</v>
@@ -9318,13 +9315,13 @@
         <v>4</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" s="12">
         <v>88</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>3</v>
@@ -9342,7 +9339,7 @@
         <v>14</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>3</v>
@@ -9352,13 +9349,13 @@
       </c>
       <c r="M136" s="1"/>
       <c r="N136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P136" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -9366,13 +9363,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>3</v>
@@ -9390,7 +9387,7 @@
         <v>14</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>3</v>
@@ -9400,13 +9397,13 @@
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P137" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -9414,13 +9411,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138" s="12">
         <v>79</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>3</v>
@@ -9438,7 +9435,7 @@
         <v>3</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>3</v>
@@ -9448,28 +9445,28 @@
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P138" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C139" s="12">
         <f>(29+29+26)/3</f>
         <v>28</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>3</v>
@@ -9497,10 +9494,10 @@
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P139" s="1" t="s">
         <v>3</v>
@@ -9508,16 +9505,16 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140" s="12">
         <v>30</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>3</v>
@@ -9535,7 +9532,7 @@
         <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>3</v>
@@ -9545,27 +9542,27 @@
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>3</v>
@@ -9583,7 +9580,7 @@
         <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>3</v>
@@ -9593,27 +9590,27 @@
       </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C142" s="12">
         <v>40</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>3</v>
@@ -9631,7 +9628,7 @@
         <v>14</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>3</v>
@@ -9641,27 +9638,27 @@
       </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="12">
         <v>34</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>3</v>
@@ -9679,7 +9676,7 @@
         <v>14</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>3</v>
@@ -9689,27 +9686,27 @@
       </c>
       <c r="M143" s="1"/>
       <c r="N143" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" s="12">
         <v>50</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>3</v>
@@ -9727,7 +9724,7 @@
         <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>3</v>
@@ -9737,27 +9734,27 @@
       </c>
       <c r="M144" s="1"/>
       <c r="N144" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>3</v>
@@ -9775,7 +9772,7 @@
         <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>3</v>
@@ -9785,27 +9782,27 @@
       </c>
       <c r="M145" s="1"/>
       <c r="N145" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>3</v>
@@ -9823,7 +9820,7 @@
         <v>14</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>3</v>
@@ -9833,42 +9830,42 @@
       </c>
       <c r="M146" s="1"/>
       <c r="N146" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="2">
+        <v>3</v>
+      </c>
+      <c r="I147" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" s="2">
-        <v>3</v>
-      </c>
-      <c r="I147" s="15" t="s">
-        <v>301</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>3</v>
@@ -9881,27 +9878,27 @@
       </c>
       <c r="M147" s="1"/>
       <c r="N147" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P147" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="12">
         <v>89</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>3</v>
@@ -9922,20 +9919,20 @@
         <v>3</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M148" s="1"/>
       <c r="N148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P148" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Sota Table R Analysis/SOTA Table (dots).xlsx
+++ b/Sota Table R Analysis/SOTA Table (dots).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/sl57wj_student_aau_dk/Documents/Projektmapper/P4-Projekt/RasaForPi/RasaForPi/Sota Table R Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{64428770-49C0-1C49-8327-1861CDF7D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48B8BFD3-1C94-0744-A7BC-7402E6906A2A}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{64428770-49C0-1C49-8327-1861CDF7D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20C618FF-522B-46A5-9C0D-39B62E873D85}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOTA Table (dots)" sheetId="3" r:id="rId1"/>
@@ -2781,30 +2781,30 @@
   </sheetPr>
   <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D148" sqref="D148"/>
+      <selection pane="bottomRight" activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
     <col min="10" max="10" width="42" customWidth="1"/>
-    <col min="11" max="13" width="29.83203125" customWidth="1"/>
+    <col min="11" max="13" width="29.85546875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>151</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>152</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>153</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>154</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>155</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>156</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>157</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>158</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>159</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>160</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>161</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>67</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>162</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>163</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>71</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>71</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>71</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>71</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>71</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>164</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>165</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>75</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>166</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>167</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>78</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>168</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>81</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>169</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>83</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>83</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>83</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>83</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>170</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>85</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>171</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>88</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>88</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>88</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>88</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>172</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>173</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>93</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>93</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>93</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>174</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>95</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>95</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>175</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>97</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>176</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>99</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>177</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>102</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>102</v>
       </c>
@@ -6947,10 +6947,10 @@
         <v>104</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>178</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>106</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>179</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>108</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>180</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>109</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>109</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>109</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>181</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>111</v>
       </c>
@@ -7427,10 +7427,10 @@
         <v>13</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>111</v>
       </c>
@@ -7475,10 +7475,10 @@
         <v>13</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>182</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>183</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>115</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>184</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>117</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>117</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>117</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>185</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>119</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>119</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>186</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>121</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>121</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>121</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>187</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>125</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>125</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>125</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>125</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>125</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>188</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>127</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>127</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>189</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>129</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>190</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>131</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>131</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>191</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>133</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>192</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>135</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>2</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>2</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>2</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>2</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>4</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>4</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>4</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>6</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>5</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>5</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>5</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>5</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>5</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>5</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>5</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>7</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>8</v>
       </c>
